--- a/story/Activity Story 活动剧情/act17d1 Rhodes Island Defense Protocol 罗德岛防御协议/level_act17d1_entry.xlsx
+++ b/story/Activity Story 活动剧情/act17d1 Rhodes Island Defense Protocol 罗德岛防御协议/level_act17d1_entry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="441">
   <si>
     <t>zh_CN</t>
   </si>
@@ -1444,7 +1444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="제시카"]  알았어.
+    <t xml:space="preserve">[name="제시카"]  네.
 </t>
   </si>
   <si>
@@ -1508,10 +1508,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="제시카"]  맞아.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="스노우상트"]  그럼, 현장 감독이랑, 오리지늄 설비를 조작하는 사람은요?
 </t>
   </si>
@@ -1680,7 +1676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="제시카"]  무사합니다.
+    <t xml:space="preserve">[name="제시카"]  준비됐어요.
 </t>
   </si>
   <si>
@@ -1709,10 +1705,6 @@
   </si>
   <si>
     <t xml:space="preserve">[name="스노우상트"]  저…… 전 문제 없어요.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="제시카"]  준비됐어요.
 </t>
   </si>
   <si>
@@ -2744,7 +2736,7 @@
         <v>264</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2758,7 +2750,7 @@
         <v>265</v>
       </c>
       <c r="D44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2772,7 +2764,7 @@
         <v>266</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2786,7 +2778,7 @@
         <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2800,7 +2792,7 @@
         <v>268</v>
       </c>
       <c r="D47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2814,7 +2806,7 @@
         <v>269</v>
       </c>
       <c r="D48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2828,7 +2820,7 @@
         <v>270</v>
       </c>
       <c r="D49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2842,7 +2834,7 @@
         <v>271</v>
       </c>
       <c r="D50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2856,7 +2848,7 @@
         <v>272</v>
       </c>
       <c r="D51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2870,7 +2862,7 @@
         <v>273</v>
       </c>
       <c r="D52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2898,7 +2890,7 @@
         <v>274</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2912,7 +2904,7 @@
         <v>275</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2926,7 +2918,7 @@
         <v>276</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2940,7 +2932,7 @@
         <v>277</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2954,7 +2946,7 @@
         <v>278</v>
       </c>
       <c r="D58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2968,7 +2960,7 @@
         <v>279</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2982,7 +2974,7 @@
         <v>280</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2996,7 +2988,7 @@
         <v>281</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3010,7 +3002,7 @@
         <v>282</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3024,7 +3016,7 @@
         <v>283</v>
       </c>
       <c r="D63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3038,7 +3030,7 @@
         <v>284</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3052,7 +3044,7 @@
         <v>285</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3066,7 +3058,7 @@
         <v>286</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3080,7 +3072,7 @@
         <v>287</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3094,7 +3086,7 @@
         <v>288</v>
       </c>
       <c r="D68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3108,7 +3100,7 @@
         <v>289</v>
       </c>
       <c r="D69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3122,7 +3114,7 @@
         <v>290</v>
       </c>
       <c r="D70" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3136,7 +3128,7 @@
         <v>291</v>
       </c>
       <c r="D71" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3150,7 +3142,7 @@
         <v>292</v>
       </c>
       <c r="D72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3164,7 +3156,7 @@
         <v>293</v>
       </c>
       <c r="D73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3178,7 +3170,7 @@
         <v>294</v>
       </c>
       <c r="D74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3192,7 +3184,7 @@
         <v>295</v>
       </c>
       <c r="D75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3206,7 +3198,7 @@
         <v>296</v>
       </c>
       <c r="D76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3220,7 +3212,7 @@
         <v>297</v>
       </c>
       <c r="D77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3234,7 +3226,7 @@
         <v>298</v>
       </c>
       <c r="D78" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3248,7 +3240,7 @@
         <v>299</v>
       </c>
       <c r="D79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3262,7 +3254,7 @@
         <v>300</v>
       </c>
       <c r="D80" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3276,7 +3268,7 @@
         <v>301</v>
       </c>
       <c r="D81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3290,7 +3282,7 @@
         <v>302</v>
       </c>
       <c r="D82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3304,7 +3296,7 @@
         <v>303</v>
       </c>
       <c r="D83" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3318,7 +3310,7 @@
         <v>304</v>
       </c>
       <c r="D84" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3332,7 +3324,7 @@
         <v>305</v>
       </c>
       <c r="D85" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3346,7 +3338,7 @@
         <v>306</v>
       </c>
       <c r="D86" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3360,7 +3352,7 @@
         <v>307</v>
       </c>
       <c r="D87" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3374,7 +3366,7 @@
         <v>308</v>
       </c>
       <c r="D88" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3388,7 +3380,7 @@
         <v>309</v>
       </c>
       <c r="D89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3402,7 +3394,7 @@
         <v>310</v>
       </c>
       <c r="D90" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3416,7 +3408,7 @@
         <v>311</v>
       </c>
       <c r="D91" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3430,7 +3422,7 @@
         <v>312</v>
       </c>
       <c r="D92" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3444,7 +3436,7 @@
         <v>313</v>
       </c>
       <c r="D93" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3458,7 +3450,7 @@
         <v>314</v>
       </c>
       <c r="D94" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3472,7 +3464,7 @@
         <v>315</v>
       </c>
       <c r="D95" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3486,7 +3478,7 @@
         <v>316</v>
       </c>
       <c r="D96" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3500,7 +3492,7 @@
         <v>317</v>
       </c>
       <c r="D97" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3514,7 +3506,7 @@
         <v>318</v>
       </c>
       <c r="D98" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3528,7 +3520,7 @@
         <v>319</v>
       </c>
       <c r="D99" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3542,7 +3534,7 @@
         <v>320</v>
       </c>
       <c r="D100" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3556,7 +3548,7 @@
         <v>321</v>
       </c>
       <c r="D101" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3570,7 +3562,7 @@
         <v>322</v>
       </c>
       <c r="D102" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3584,7 +3576,7 @@
         <v>323</v>
       </c>
       <c r="D103" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3598,7 +3590,7 @@
         <v>287</v>
       </c>
       <c r="D104" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3612,7 +3604,7 @@
         <v>324</v>
       </c>
       <c r="D105" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3626,7 +3618,7 @@
         <v>325</v>
       </c>
       <c r="D106" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3640,7 +3632,7 @@
         <v>326</v>
       </c>
       <c r="D107" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3654,7 +3646,7 @@
         <v>327</v>
       </c>
       <c r="D108" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3668,7 +3660,7 @@
         <v>328</v>
       </c>
       <c r="D109" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3682,7 +3674,7 @@
         <v>329</v>
       </c>
       <c r="D110" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3696,7 +3688,7 @@
         <v>330</v>
       </c>
       <c r="D111" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3710,7 +3702,7 @@
         <v>331</v>
       </c>
       <c r="D112" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3724,7 +3716,7 @@
         <v>332</v>
       </c>
       <c r="D113" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
